--- a/storage/app/template/impor/format-impor-program-bantuan.xlsx
+++ b/storage/app/template/impor/format-impor-program-bantuan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\manurung\assets\import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xamppB\htdocs\premiumaja\premium\storage\app\template\impor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D6D98E-EFA6-42B6-9664-E9FCD7E0C346}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E944781-4909-4809-89E3-C724BA0BB644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Program" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>No. Peserta</t>
   </si>
@@ -90,9 +90,6 @@
   </si>
   <si>
     <t>Asal Dana</t>
-  </si>
-  <si>
-    <t>Pusat</t>
   </si>
   <si>
     <t>Rentang Waktu (Awal)</t>
@@ -218,28 +215,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -251,10 +248,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -571,25 +568,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C8C082F-6BC1-49A6-8236-34CCE45B6AA0}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="24.625" customWidth="1"/>
     <col min="2" max="2" width="57.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" s="12" t="s">
         <v>17</v>
       </c>
@@ -597,7 +594,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" s="12" t="s">
         <v>19</v>
       </c>
@@ -605,7 +602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" s="12" t="s">
         <v>20</v>
       </c>
@@ -613,56 +610,56 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A6" s="12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="B6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="2" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A7" s="12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="B7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="10"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="10"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A11" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="10"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="B11" s="8"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A12" s="9" t="s">
         <v>31</v>
-      </c>
-      <c r="B11" s="8"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>32</v>
       </c>
       <c r="B12" s="8"/>
     </row>
@@ -676,11 +673,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="17.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
@@ -691,7 +688,7 @@
     <col min="7" max="7" width="31.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -714,7 +711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2" s="13" t="s">
         <v>12</v>
       </c>
@@ -731,36 +728,36 @@
         <v>14</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A3" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>33</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>34</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -771,7 +768,7 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -782,7 +779,7 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A6" s="8" t="s">
         <v>11</v>
       </c>
@@ -793,9 +790,9 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A7" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -804,9 +801,9 @@
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A8" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
